--- a/participants/participant_13/participant_13_task_orders.xlsx
+++ b/participants/participant_13/participant_13_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730422259328" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730444865572" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-164987304448853" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730445355227" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730445965579" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291152940764" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911560234258" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650291156025426" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911560730412" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911561399179" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873042194902.csv</t>
+          <t>go_stims-16502911528950486.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730422089338.csv</t>
+          <t>GNG_stims-16502911529184263.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730422098982.csv</t>
+          <t>go_stims-16502911529194033.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730422249079.csv</t>
+          <t>GNG_stims-16502911529397924.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_9-16498730433955572.csv</t>
+          <t>OB-16502911539408858.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730433025565.csv</t>
+          <t>OB-1650291154398093.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498730444735234.csv</t>
+          <t>TB-16502911552666025.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498730440055542.csv</t>
+          <t>OB-16502911539672842.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498730443455598.csv</t>
+          <t>ZB-match_9-16502911529874723.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-1649873043451557.csv</t>
+          <t>TB-16502911547489574.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498730435345592.csv</t>
+          <t>TB-165029115601169.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16498730443835225.csv</t>
+          <t>ZB-match_2-1650291153678189.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1649873043797554.csv</t>
+          <t>ZB-match_1-16502911530372767.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730445025222.csv</t>
+          <t>MM_stims-16502911560395296.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730444905221.csv</t>
+          <t>ZM_stims-1650291156026477.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730445185587.csv</t>
+          <t>MM_stims-16502911560562127.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730445035224.csv</t>
+          <t>ZM_stims-16502911560395296.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730445345588.csv</t>
+          <t>MM_stims-16502911560720437.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873044519523.csv</t>
+          <t>ZM_stims-16502911560572174.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730445656133.csv</t>
+          <t>SAT_stims-1650291156075139.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730445395234.csv</t>
+          <t>vSAT_stims-16502911561030836.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730445816092.csv</t>
+          <t>vSAT_stims-1650291156123236.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730445505288.csv</t>
+          <t>SAT_stims-16502911560875661.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_13/participant_13_task_orders.xlsx
+++ b/participants/participant_13/participant_13_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291152940764" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911560234258" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650291156025426" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911560730412" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911561399179" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-165047780375659" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778055515528" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778055525546" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778055985584" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650477805661558" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911528950486.csv</t>
+          <t>go_stims-16504778037175598.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911529184263.csv</t>
+          <t>GNG_stims-16504778037405543.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911529194033.csv</t>
+          <t>go_stims-16504778037425559.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911529397924.csv</t>
+          <t>GNG_stims-16504778037555885.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502911539408858.csv</t>
+          <t>OB-1650477804827587.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1650291154398093.csv</t>
+          <t>TB-16504778055285528.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502911552666025.csv</t>
+          <t>OB-16504778048555553.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16502911539672842.csv</t>
+          <t>ZB-match_0-16504778042125518.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16502911529874723.csv</t>
+          <t>OB-16504778048995905.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502911547489574.csv</t>
+          <t>TB-1650477805454587.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-165029115601169.csv</t>
+          <t>ZB-match_9-16504778046465547.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-1650291153678189.csv</t>
+          <t>TB-16504778051065872.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16502911530372767.csv</t>
+          <t>ZB-match_1-16504778044395535.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911560395296.csv</t>
+          <t>MM_stims-16504778055665529.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291156026477.csv</t>
+          <t>ZM_stims-16504778055545542.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911560562127.csv</t>
+          <t>MM_stims-16504778055815878.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911560395296.csv</t>
+          <t>ZM_stims-16504778055675545.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911560720437.csv</t>
+          <t>MM_stims-16504778055975573.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911560572174.csv</t>
+          <t>ZM_stims-16504778055815878.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291156075139.csv</t>
+          <t>vSAT_stims-16504778056295874.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911561030836.csv</t>
+          <t>vSAT_stims-1650477805645553.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291156123236.csv</t>
+          <t>SAT_stims-1650477805602559.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911560875661.csv</t>
+          <t>SAT_stims-16504778056135535.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_13/participant_13_task_orders.xlsx
+++ b/participants/participant_13/participant_13_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-165047780375659" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778055515528" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778055525546" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778055985584" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650477805661558" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509960927734134" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509960945174143" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509960945174143" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650996094565419" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650996094637413" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778037175598.csv</t>
+          <t>go_stims-1650996092741415.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778037405543.csv</t>
+          <t>GNG_stims-16509960927573867.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778037425559.csv</t>
+          <t>go_stims-16509960927573867.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778037555885.csv</t>
+          <t>GNG_stims-16509960927734134.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650477804827587.csv</t>
+          <t>TB-16509960944933822.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504778055285528.csv</t>
+          <t>ZB-match_9-16509960930694163.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778048555553.csv</t>
+          <t>TB-16509960940774133.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778042125518.csv</t>
+          <t>ZB-match_0-16509960931733959.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16504778048995905.csv</t>
+          <t>OB-16509960934133797.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650477805454587.csv</t>
+          <t>ZB-match_3-16509960931413805.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778046465547.csv</t>
+          <t>TB-1650996094133387.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504778051065872.csv</t>
+          <t>OB-16509960935174253.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778044395535.csv</t>
+          <t>OB-16509960933733811.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778055665529.csv</t>
+          <t>MM_stims-16509960945334184.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778055545542.csv</t>
+          <t>ZM_stims-16509960945174143.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778055815878.csv</t>
+          <t>MM_stims-16509960945493784.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778055675545.csv</t>
+          <t>ZM_stims-16509960945334184.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778055975573.csv</t>
+          <t>MM_stims-1650996094565419.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778055815878.csv</t>
+          <t>ZM_stims-16509960945493784.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778056295874.csv</t>
+          <t>SAT_stims-1650996094565419.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477805645553.csv</t>
+          <t>SAT_stims-16509960945894132.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477805602559.csv</t>
+          <t>vSAT_stims-16509960946214201.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778056135535.csv</t>
+          <t>vSAT_stims-1650996094605414.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_13/participant_13_task_orders.xlsx
+++ b/participants/participant_13/participant_13_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509960927734134" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509960945174143" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509960945174143" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650996094565419" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650996094637413" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168684318216" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511686878871334" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168687888048" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686879350808" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686879990811" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996092741415.csv</t>
+          <t>go_stims-1651168684277213.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960927573867.csv</t>
+          <t>GNG_stims-16511686843002436.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960927573867.csv</t>
+          <t>go_stims-16511686843012083.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960927734134.csv</t>
+          <t>GNG_stims-1651168684317216.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509960944933822.csv</t>
+          <t>TB-16511686865591183.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509960930694163.csv</t>
+          <t>ZB-match_0-16511686843772082.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509960940774133.csv</t>
+          <t>TB-1651168687230525.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509960931733959.csv</t>
+          <t>OB-16511686847159374.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509960934133797.csv</t>
+          <t>ZB-match_9-16511686845589345.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509960931413805.csv</t>
+          <t>ZB-match_2-1651168684598935.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1650996094133387.csv</t>
+          <t>OB-16511686858579407.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509960935174253.csv</t>
+          <t>OB-16511686854339457.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509960933733811.csv</t>
+          <t>TB-16511686878650455.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509960945334184.csv</t>
+          <t>MM_stims-1651168687903045.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960945174143.csv</t>
+          <t>ZM_stims-16511686878900456.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960945493784.csv</t>
+          <t>MM_stims-16511686879190795.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960945334184.csv</t>
+          <t>ZM_stims-1651168687903045.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650996094565419.csv</t>
+          <t>MM_stims-16511686879350808.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960945493784.csv</t>
+          <t>ZM_stims-16511686879201021.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996094565419.csv</t>
+          <t>SAT_stims-16511686879510455.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960945894132.csv</t>
+          <t>vSAT_stims-16511686879830818.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960946214201.csv</t>
+          <t>vSAT_stims-165116868796708.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996094605414.csv</t>
+          <t>SAT_stims-1651168687938046.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_13/participant_13_task_orders.xlsx
+++ b/participants/participant_13/participant_13_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168684318216" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511686878871334" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168687888048" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686879350808" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686879990811" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555163073485" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-165125551903115" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555190331514" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555190791514" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555191571603" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168684277213.csv</t>
+          <t>go_stims-16512555162663496.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686843002436.csv</t>
+          <t>GNG_stims-16512555162903478.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686843012083.csv</t>
+          <t>go_stims-16512555162923493.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168684317216.csv</t>
+          <t>GNG_stims-16512555163063507.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511686865591183.csv</t>
+          <t>TB-16512555184361513.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511686843772082.csv</t>
+          <t>OB-16512555169981527.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1651168687230525.csv</t>
+          <t>OB-16512555172831511.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511686847159374.csv</t>
+          <t>TB-16512555190091507.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511686845589345.csv</t>
+          <t>ZB-match_6-16512555167431502.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_2-1651168684598935.csv</t>
+          <t>ZB-match_0-16512555168781517.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511686858579407.csv</t>
+          <t>OB-16512555169661636.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16511686854339457.csv</t>
+          <t>ZB-match_2-1651255516720153.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511686878650455.csv</t>
+          <t>TB-16512555184731512.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168687903045.csv</t>
+          <t>MM_stims-16512555190461593.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686878900456.csv</t>
+          <t>ZM_stims-16512555190361552.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511686879190795.csv</t>
+          <t>MM_stims-16512555190621538.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168687903045.csv</t>
+          <t>ZM_stims-16512555190481532.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686879350808.csv</t>
+          <t>MM_stims-16512555190781536.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686879201021.csv</t>
+          <t>ZM_stims-16512555190631526.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686879510455.csv</t>
+          <t>SAT_stims-1651255519086152.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686879830818.csv</t>
+          <t>SAT_stims-16512555191101534.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-165116868796708.csv</t>
+          <t>vSAT_stims-16512555191261523.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168687938046.csv</t>
+          <t>vSAT_stims-16512555191421504.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_13/participant_13_task_orders.xlsx
+++ b/participants/participant_13/participant_13_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555163073485" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-165125551903115" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555190331514" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555190791514" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555191571603" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889440387332" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515889440865111" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NB_TO-16515889467918704" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515889467938523" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515889468242111" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555162663496.csv</t>
+          <t>vSAT_stims-16515889440235972.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555162903478.csv</t>
+          <t>SAT_stims-16515889439925416.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555162923493.csv</t>
+          <t>SAT_stims-1651588943970868.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555163063507.csv</t>
+          <t>vSAT_stims-16515889440084414.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889440542455.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889440423322.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889440698252.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889440542455.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889440855525.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-165158894407185.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +602,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512555184361513.csv</t>
+          <t>TB-16515889467702308.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +612,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555169981527.csv</t>
+          <t>OB-16515889447275171.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512555172831511.csv</t>
+          <t>TB-1651588946532745.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555190091507.csv</t>
+          <t>ZB-match_5-16515889443625016.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512555167431502.csv</t>
+          <t>ZB-match_1-16515889442041507.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512555168781517.csv</t>
+          <t>OB-16515889449358168.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512555169661636.csv</t>
+          <t>ZB-match_2-16515889441090124.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +672,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-1651255516720153.csv</t>
+          <t>TB-16515889464057643.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16512555184731512.csv</t>
+          <t>OB-16515889445998423.csv</t>
         </is>
       </c>
     </row>
@@ -605,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,92 +729,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555190461593.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555190361552.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555190621538.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555190481532.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555190781536.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555190631526.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255519086152.csv</t>
+          <t>go_stims-16515889467968955.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555191101534.csv</t>
+          <t>GNG_stims-16515889468084018.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555191261523.csv</t>
+          <t>go_stims-16515889468094006.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555191421504.csv</t>
+          <t>GNG_stims-16515889468232324.csv</t>
         </is>
       </c>
     </row>
